--- a/data/pca/factorExposure/factorExposure_2012-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002071825110747336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001874801694280317</v>
+      </c>
+      <c r="C2">
+        <v>-0.02805548274455708</v>
+      </c>
+      <c r="D2">
+        <v>0.008579808686480703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0009300069579134364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.007000400529251173</v>
+      </c>
+      <c r="C4">
+        <v>-0.08304829667019106</v>
+      </c>
+      <c r="D4">
+        <v>0.07292269091310488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0008199741167887262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01391776505906558</v>
+      </c>
+      <c r="C6">
+        <v>-0.1134557145117162</v>
+      </c>
+      <c r="D6">
+        <v>0.02260058640180598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0008641052102165824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004934614663023531</v>
+      </c>
+      <c r="C7">
+        <v>-0.05852516602226698</v>
+      </c>
+      <c r="D7">
+        <v>0.03206701508763424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006796179102754223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005677576685467821</v>
+      </c>
+      <c r="C8">
+        <v>-0.03545373290575426</v>
+      </c>
+      <c r="D8">
+        <v>0.03975257083814557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003169701763941728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005099176798565054</v>
+      </c>
+      <c r="C9">
+        <v>-0.07103898932600898</v>
+      </c>
+      <c r="D9">
+        <v>0.07591936990307309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00143568862387796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005704610484619072</v>
+      </c>
+      <c r="C10">
+        <v>-0.05764670248401623</v>
+      </c>
+      <c r="D10">
+        <v>-0.1967730241732548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002786166617644748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005705340501398335</v>
+      </c>
+      <c r="C11">
+        <v>-0.07984301951530419</v>
+      </c>
+      <c r="D11">
+        <v>0.06383786262197244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006852512865987698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004090961397943554</v>
+      </c>
+      <c r="C12">
+        <v>-0.06480104292127599</v>
+      </c>
+      <c r="D12">
+        <v>0.05061915963983246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002599640144315956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008607780178751231</v>
+      </c>
+      <c r="C13">
+        <v>-0.06716881145045749</v>
+      </c>
+      <c r="D13">
+        <v>0.06436767832373108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00209205581198821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.000807371981637739</v>
+      </c>
+      <c r="C14">
+        <v>-0.04301482491670183</v>
+      </c>
+      <c r="D14">
+        <v>0.009538687787929365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001103697592814269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006003027792218625</v>
+      </c>
+      <c r="C15">
+        <v>-0.04076628521789095</v>
+      </c>
+      <c r="D15">
+        <v>0.03012492485918295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000962408894958264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005057404209127371</v>
+      </c>
+      <c r="C16">
+        <v>-0.06446898160144167</v>
+      </c>
+      <c r="D16">
+        <v>0.05573747164637655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006130220213592204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009077443070525311</v>
+      </c>
+      <c r="C20">
+        <v>-0.06439104865191385</v>
+      </c>
+      <c r="D20">
+        <v>0.0487015096717731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007063841180399434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009720307612320093</v>
+      </c>
+      <c r="C21">
+        <v>-0.02064495447972255</v>
+      </c>
+      <c r="D21">
+        <v>0.04199337748200112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01532061848386171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006386258532535087</v>
+      </c>
+      <c r="C22">
+        <v>-0.08925686288942002</v>
+      </c>
+      <c r="D22">
+        <v>0.1185868191109574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01510018128862751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006198380244434463</v>
+      </c>
+      <c r="C23">
+        <v>-0.0897686519138584</v>
+      </c>
+      <c r="D23">
+        <v>0.1193986843209379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002154887367975381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005589507628938234</v>
+      </c>
+      <c r="C24">
+        <v>-0.07588954699531936</v>
+      </c>
+      <c r="D24">
+        <v>0.06777038168947434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003899669631568604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003196701546462239</v>
+      </c>
+      <c r="C25">
+        <v>-0.07826621033666055</v>
+      </c>
+      <c r="D25">
+        <v>0.06607251459578582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003260117994916122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003665279224705031</v>
+      </c>
+      <c r="C26">
+        <v>-0.03875419494780617</v>
+      </c>
+      <c r="D26">
+        <v>0.02566353483110159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007754240704219772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.00139369165690962</v>
+      </c>
+      <c r="C28">
+        <v>-0.1037599740962284</v>
+      </c>
+      <c r="D28">
+        <v>-0.3200564892748086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001308427688038838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002623538625275828</v>
+      </c>
+      <c r="C29">
+        <v>-0.04881460778152188</v>
+      </c>
+      <c r="D29">
+        <v>0.008947539300389384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004650594108186612</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009718471277511484</v>
+      </c>
+      <c r="C30">
+        <v>-0.1414909322587127</v>
+      </c>
+      <c r="D30">
+        <v>0.1084810834243419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0006709014386266922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006264226844950847</v>
+      </c>
+      <c r="C31">
+        <v>-0.04412021099380626</v>
+      </c>
+      <c r="D31">
+        <v>0.03090557203168577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0002199386277524147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003656945084662535</v>
+      </c>
+      <c r="C32">
+        <v>-0.0405179314059711</v>
+      </c>
+      <c r="D32">
+        <v>0.02581657825108779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002325814383770369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008887781320358928</v>
+      </c>
+      <c r="C33">
+        <v>-0.08759418379533267</v>
+      </c>
+      <c r="D33">
+        <v>0.06581561119397991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004027829752726242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004105471227365876</v>
+      </c>
+      <c r="C34">
+        <v>-0.05777865977903674</v>
+      </c>
+      <c r="D34">
+        <v>0.05740663795872969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006063718456734435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005214907243694218</v>
+      </c>
+      <c r="C35">
+        <v>-0.04102558491555208</v>
+      </c>
+      <c r="D35">
+        <v>0.01945603585404056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004478486101009744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001181104248826474</v>
+      </c>
+      <c r="C36">
+        <v>-0.0249831483356804</v>
+      </c>
+      <c r="D36">
+        <v>0.0258880068674464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0008729679136525543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009231245103501743</v>
+      </c>
+      <c r="C38">
+        <v>-0.03741504705599943</v>
+      </c>
+      <c r="D38">
+        <v>0.01427621520522149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01268628220084615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009362251098870486</v>
+      </c>
+      <c r="C39">
+        <v>-0.1142048983652099</v>
+      </c>
+      <c r="D39">
+        <v>0.07847450401382909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007221240202547412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00371048802630127</v>
+      </c>
+      <c r="C40">
+        <v>-0.09049564763446669</v>
+      </c>
+      <c r="D40">
+        <v>0.01567601886339201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008771876322086448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007171484726842464</v>
+      </c>
+      <c r="C41">
+        <v>-0.03866187534715353</v>
+      </c>
+      <c r="D41">
+        <v>0.03842624362748218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002837989713222184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003949084647340858</v>
+      </c>
+      <c r="C43">
+        <v>-0.05390558971063309</v>
+      </c>
+      <c r="D43">
+        <v>0.02615459857412281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01274027681617761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003062506800877044</v>
+      </c>
+      <c r="C44">
+        <v>-0.1062144203876002</v>
+      </c>
+      <c r="D44">
+        <v>0.0677614035152023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001193392004233294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001789130326044179</v>
+      </c>
+      <c r="C46">
+        <v>-0.03316547386297385</v>
+      </c>
+      <c r="D46">
+        <v>0.03303210164162527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002127378458094509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002263944599491682</v>
+      </c>
+      <c r="C47">
+        <v>-0.03726750534819688</v>
+      </c>
+      <c r="D47">
+        <v>0.01924753416102356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004140711380110117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006646089797747394</v>
+      </c>
+      <c r="C48">
+        <v>-0.03023811613554831</v>
+      </c>
+      <c r="D48">
+        <v>0.03624550071438794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.009672159211626638</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01737757069239348</v>
+      </c>
+      <c r="C49">
+        <v>-0.1882224701447303</v>
+      </c>
+      <c r="D49">
+        <v>0.00646872174942347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00123561992598728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003528422058673151</v>
+      </c>
+      <c r="C50">
+        <v>-0.04293862766715877</v>
+      </c>
+      <c r="D50">
+        <v>0.03894836498022556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008870570881855681</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004766696182727862</v>
+      </c>
+      <c r="C51">
+        <v>-0.02568867611217744</v>
+      </c>
+      <c r="D51">
+        <v>0.02172534264639702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002050803235171678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02119390073470172</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698176810485553</v>
+      </c>
+      <c r="D53">
+        <v>0.02564855809750069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002402086808889268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008903699054366171</v>
+      </c>
+      <c r="C54">
+        <v>-0.05399965289633736</v>
+      </c>
+      <c r="D54">
+        <v>0.04540401601982355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003709796712557411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009632933966458358</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082662127681806</v>
+      </c>
+      <c r="D55">
+        <v>0.04035515342593687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003220290508800351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0200352175746397</v>
+      </c>
+      <c r="C56">
+        <v>-0.1756851473992552</v>
+      </c>
+      <c r="D56">
+        <v>0.01603949949465071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004245266455772956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01953136579155308</v>
+      </c>
+      <c r="C58">
+        <v>-0.107562880509612</v>
+      </c>
+      <c r="D58">
+        <v>0.06837880526897942</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009273987397925482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009997985423915492</v>
+      </c>
+      <c r="C59">
+        <v>-0.1670112685101484</v>
+      </c>
+      <c r="D59">
+        <v>-0.3413755447403979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003067689726395814</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02520161030693642</v>
+      </c>
+      <c r="C60">
+        <v>-0.2249513319982356</v>
+      </c>
+      <c r="D60">
+        <v>0.02112976106256005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01316556407601769</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001889710836533868</v>
+      </c>
+      <c r="C61">
+        <v>-0.09413007731228468</v>
+      </c>
+      <c r="D61">
+        <v>0.05971720371734879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1590400674571076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1486953085546716</v>
+      </c>
+      <c r="C62">
+        <v>-0.0952466886268879</v>
+      </c>
+      <c r="D62">
+        <v>0.02772949220131764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-3.304206416924097e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00660802525670692</v>
+      </c>
+      <c r="C63">
+        <v>-0.05379495902109798</v>
+      </c>
+      <c r="D63">
+        <v>0.03192619723784851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002178203243103682</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01589927983251119</v>
+      </c>
+      <c r="C64">
+        <v>-0.1044292558085614</v>
+      </c>
+      <c r="D64">
+        <v>0.05629178803307961</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002726234184194133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0179434635384552</v>
+      </c>
+      <c r="C65">
+        <v>-0.123450937221706</v>
+      </c>
+      <c r="D65">
+        <v>0.02090332845730072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003355135087103487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01347546614662203</v>
+      </c>
+      <c r="C66">
+        <v>-0.1591790209465435</v>
+      </c>
+      <c r="D66">
+        <v>0.1125700325054104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003139444330870208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01553691769473609</v>
+      </c>
+      <c r="C67">
+        <v>-0.06891494917246437</v>
+      </c>
+      <c r="D67">
+        <v>0.02665026117119958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007177916625082092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009588616024191498</v>
+      </c>
+      <c r="C68">
+        <v>-0.08741613310565953</v>
+      </c>
+      <c r="D68">
+        <v>-0.2580280627997699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001534188919062244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006259175787948225</v>
+      </c>
+      <c r="C69">
+        <v>-0.05154885509698744</v>
+      </c>
+      <c r="D69">
+        <v>0.03761227633268032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003951758073709601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001967393367883076</v>
+      </c>
+      <c r="C70">
+        <v>-0.005527560392663343</v>
+      </c>
+      <c r="D70">
+        <v>0.0009725088990230977</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002131883214255352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005559500160829092</v>
+      </c>
+      <c r="C71">
+        <v>-0.09180039894470192</v>
+      </c>
+      <c r="D71">
+        <v>-0.3016867798560275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003138350756166196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01671811211527077</v>
+      </c>
+      <c r="C72">
+        <v>-0.156027522512635</v>
+      </c>
+      <c r="D72">
+        <v>0.01520795232601864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.009571405723468231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03186299047879886</v>
+      </c>
+      <c r="C73">
+        <v>-0.2827985432996532</v>
+      </c>
+      <c r="D73">
+        <v>0.0547921798862824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005470915678394641</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002051544402695293</v>
+      </c>
+      <c r="C74">
+        <v>-0.1025447910062329</v>
+      </c>
+      <c r="D74">
+        <v>0.03646921882356277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00394428811438566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01134513279872993</v>
+      </c>
+      <c r="C75">
+        <v>-0.1227134990509363</v>
+      </c>
+      <c r="D75">
+        <v>0.02362561149312226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.007110984888647493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02232630334140408</v>
+      </c>
+      <c r="C76">
+        <v>-0.1479531325721462</v>
+      </c>
+      <c r="D76">
+        <v>0.05828421308532784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002201878662865286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02182405719573388</v>
+      </c>
+      <c r="C77">
+        <v>-0.1131594195266507</v>
+      </c>
+      <c r="D77">
+        <v>0.05035902615169291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.002369566027859297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01503861066029279</v>
+      </c>
+      <c r="C78">
+        <v>-0.09626537591619512</v>
+      </c>
+      <c r="D78">
+        <v>0.07738761003874788</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02348787232345345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03856009442449636</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566473666735185</v>
+      </c>
+      <c r="D79">
+        <v>0.0331778086998329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.007746318691379619</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01007569159915581</v>
+      </c>
+      <c r="C80">
+        <v>-0.03839589547955567</v>
+      </c>
+      <c r="D80">
+        <v>0.03074912285932841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001507273360348414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01585767167080723</v>
+      </c>
+      <c r="C81">
+        <v>-0.1297756271178133</v>
+      </c>
+      <c r="D81">
+        <v>0.03834477642591152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004651632840721058</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02015885380257434</v>
+      </c>
+      <c r="C82">
+        <v>-0.1389410508915582</v>
+      </c>
+      <c r="D82">
+        <v>0.04144164332784651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005503625967593746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01058492128339381</v>
+      </c>
+      <c r="C83">
+        <v>-0.05944125247504033</v>
+      </c>
+      <c r="D83">
+        <v>0.04982590579046311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01387882652742385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01184774999882017</v>
+      </c>
+      <c r="C84">
+        <v>-0.03690282201540095</v>
+      </c>
+      <c r="D84">
+        <v>-0.003531223246620551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01511527275414294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02951789802307091</v>
+      </c>
+      <c r="C85">
+        <v>-0.1244267591980691</v>
+      </c>
+      <c r="D85">
+        <v>0.04294991998592909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008180706654120281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004586188062931538</v>
+      </c>
+      <c r="C86">
+        <v>-0.04989245806827274</v>
+      </c>
+      <c r="D86">
+        <v>0.02894427983503301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003075198047356653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0108231255675138</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285305921077445</v>
+      </c>
+      <c r="D87">
+        <v>0.07412433327998297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01116973522199451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002890629490909545</v>
+      </c>
+      <c r="C88">
+        <v>-0.06325146652237575</v>
+      </c>
+      <c r="D88">
+        <v>0.02685731794246746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01523078389353355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001870568399589073</v>
+      </c>
+      <c r="C89">
+        <v>-0.1401896444637122</v>
+      </c>
+      <c r="D89">
+        <v>-0.3195726247200796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004785443334847388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006571869076637449</v>
+      </c>
+      <c r="C90">
+        <v>-0.1201581345387874</v>
+      </c>
+      <c r="D90">
+        <v>-0.3139605615786021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008141615147472835</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01054392024192036</v>
+      </c>
+      <c r="C91">
+        <v>-0.0998567721077733</v>
+      </c>
+      <c r="D91">
+        <v>0.02490538995359809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01171311904778963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004269141526477789</v>
+      </c>
+      <c r="C92">
+        <v>-0.135563780749219</v>
+      </c>
+      <c r="D92">
+        <v>-0.3253552807682419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002127972772256816</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004534040818533338</v>
+      </c>
+      <c r="C93">
+        <v>-0.1052947591687558</v>
+      </c>
+      <c r="D93">
+        <v>-0.2993861457819811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001238167890161774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02191694990425988</v>
+      </c>
+      <c r="C94">
+        <v>-0.1435918341306835</v>
+      </c>
+      <c r="D94">
+        <v>0.05388856832982098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002140088613611679</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01668429252130193</v>
+      </c>
+      <c r="C95">
+        <v>-0.1216977181710654</v>
+      </c>
+      <c r="D95">
+        <v>0.06460614863247699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002004136657133847</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03696893487077303</v>
+      </c>
+      <c r="C97">
+        <v>-0.2231761009063183</v>
+      </c>
+      <c r="D97">
+        <v>0.0009208682995475542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.0009898028894623171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03802728625487085</v>
+      </c>
+      <c r="C98">
+        <v>-0.2545135249555147</v>
+      </c>
+      <c r="D98">
+        <v>0.0375688608168238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9855149248085988</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9813379335207745</v>
+      </c>
+      <c r="C99">
+        <v>0.1198669991623673</v>
+      </c>
+      <c r="D99">
+        <v>-0.02510771414029756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001224764835253333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002666065003000553</v>
+      </c>
+      <c r="C101">
+        <v>-0.04895087366456825</v>
+      </c>
+      <c r="D101">
+        <v>0.009329868974285654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
